--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_EnCQR-LSTM_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_EnCQR-LSTM_No_Lineal_Estacionario_SETAR.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.4867387249496189</v>
+        <v>0.5759828773678666</v>
       </c>
       <c r="D2">
-        <v>0.4879073490220489</v>
+        <v>0.6047874795115229</v>
       </c>
       <c r="E2">
-        <v>0.8676538795904283</v>
+        <v>0.8865472824986775</v>
       </c>
       <c r="F2">
-        <v>0.7263843369937075</v>
+        <v>0.80017960914057</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4867387249496189</v>
+        <v>0.5759828773678666</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1595721292387529</v>
+        <v>0.2891591898825707</v>
       </c>
       <c r="E3">
-        <v>0.5090957835367362</v>
+        <v>0.4985986387039578</v>
       </c>
       <c r="F3">
-        <v>0.2327510183882973</v>
+        <v>0.243650175886734</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4879073490220489</v>
+        <v>0.6047874795115229</v>
       </c>
       <c r="C4">
-        <v>0.1595721292387529</v>
+        <v>0.2891591898825707</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.228817511616658</v>
+        <v>0.3891791632672612</v>
       </c>
       <c r="F4">
-        <v>0.5275387720088034</v>
+        <v>0.6222907548544758</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8676538795904283</v>
+        <v>0.8865472824986775</v>
       </c>
       <c r="C5">
-        <v>0.5090957835367362</v>
+        <v>0.4985986387039578</v>
       </c>
       <c r="D5">
-        <v>0.228817511616658</v>
+        <v>0.3891791632672612</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5774321849554163</v>
+        <v>0.6201803543818003</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7263843369937075</v>
+        <v>0.80017960914057</v>
       </c>
       <c r="C6">
-        <v>0.2327510183882973</v>
+        <v>0.243650175886734</v>
       </c>
       <c r="D6">
-        <v>0.5275387720088034</v>
+        <v>0.6222907548544758</v>
       </c>
       <c r="E6">
-        <v>0.5774321849554163</v>
+        <v>0.6201803543818003</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.6960442126331411</v>
+        <v>0.5726206914965135</v>
       </c>
       <c r="D2">
-        <v>-0.6941776243186043</v>
+        <v>-0.5294506749158775</v>
       </c>
       <c r="E2">
-        <v>0.1667287002873684</v>
+        <v>0.1452973112544494</v>
       </c>
       <c r="F2">
-        <v>-0.3501442732215236</v>
+        <v>-0.2579751896406907</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.6960442126331411</v>
+        <v>-0.5726206914965135</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-1.40870183115056</v>
+        <v>-1.101731997646872</v>
       </c>
       <c r="E3">
-        <v>-0.6607414435503128</v>
+        <v>-0.6947206117884998</v>
       </c>
       <c r="F3">
-        <v>-1.19481387676484</v>
+        <v>-1.21719574849004</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6941776243186043</v>
+        <v>0.5294506749158775</v>
       </c>
       <c r="C4">
-        <v>1.40870183115056</v>
+        <v>1.101731997646872</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.204950166803959</v>
+        <v>0.8886993011483927</v>
       </c>
       <c r="F4">
-        <v>0.6322291940574746</v>
+        <v>0.5037206941243789</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.1667287002873684</v>
+        <v>-0.1452973112544494</v>
       </c>
       <c r="C5">
-        <v>0.6607414435503128</v>
+        <v>0.6947206117884998</v>
       </c>
       <c r="D5">
-        <v>-1.204950166803959</v>
+        <v>-0.8886993011483927</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.5575206635287029</v>
+        <v>-0.5068041222154503</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3501442732215236</v>
+        <v>0.2579751896406907</v>
       </c>
       <c r="C6">
-        <v>1.19481387676484</v>
+        <v>1.21719574849004</v>
       </c>
       <c r="D6">
-        <v>-0.6322291940574746</v>
+        <v>-0.5037206941243789</v>
       </c>
       <c r="E6">
-        <v>0.5575206635287029</v>
+        <v>0.5068041222154503</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_EnCQR-LSTM_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_EnCQR-LSTM_No_Lineal_Estacionario_SETAR.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.5759828773678666</v>
+        <v>0.2629778787141293</v>
       </c>
       <c r="D2">
-        <v>0.6047874795115229</v>
+        <v>0.7547287159192968</v>
       </c>
       <c r="E2">
-        <v>0.8865472824986775</v>
+        <v>0.8104950024562636</v>
       </c>
       <c r="F2">
-        <v>0.80017960914057</v>
+        <v>0.6919534649678343</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5759828773678666</v>
+        <v>0.2629778787141293</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.2891591898825707</v>
+        <v>0.5476375794708805</v>
       </c>
       <c r="E3">
-        <v>0.4985986387039578</v>
+        <v>0.6283615344837705</v>
       </c>
       <c r="F3">
-        <v>0.243650175886734</v>
+        <v>0.5298676442394945</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6047874795115229</v>
+        <v>0.7547287159192968</v>
       </c>
       <c r="C4">
-        <v>0.2891591898825707</v>
+        <v>0.5476375794708805</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.3891791632672612</v>
+        <v>0.9632394454361568</v>
       </c>
       <c r="F4">
-        <v>0.6222907548544758</v>
+        <v>0.9962254596392219</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8865472824986775</v>
+        <v>0.8104950024562636</v>
       </c>
       <c r="C5">
-        <v>0.4985986387039578</v>
+        <v>0.6283615344837705</v>
       </c>
       <c r="D5">
-        <v>0.3891791632672612</v>
+        <v>0.9632394454361568</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6201803543818003</v>
+        <v>0.9727017553782851</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.80017960914057</v>
+        <v>0.6919534649678343</v>
       </c>
       <c r="C6">
-        <v>0.243650175886734</v>
+        <v>0.5298676442394945</v>
       </c>
       <c r="D6">
-        <v>0.6222907548544758</v>
+        <v>0.9962254596392219</v>
       </c>
       <c r="E6">
-        <v>0.6201803543818003</v>
+        <v>0.9727017553782851</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.5726206914965135</v>
+        <v>-1.148795204719789</v>
       </c>
       <c r="D2">
-        <v>-0.5294506749158775</v>
+        <v>-0.3163368920205589</v>
       </c>
       <c r="E2">
-        <v>0.1452973112544494</v>
+        <v>-0.2426885130953781</v>
       </c>
       <c r="F2">
-        <v>-0.2579751896406907</v>
+        <v>-0.4014614465942877</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.5726206914965135</v>
+        <v>1.148795204719789</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-1.101731997646872</v>
+        <v>0.6107287011839193</v>
       </c>
       <c r="E3">
-        <v>-0.6947206117884998</v>
+        <v>0.490895322124013</v>
       </c>
       <c r="F3">
-        <v>-1.21719574849004</v>
+        <v>0.6382996992832101</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5294506749158775</v>
+        <v>0.3163368920205589</v>
       </c>
       <c r="C4">
-        <v>1.101731997646872</v>
+        <v>-0.6107287011839193</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.8886993011483927</v>
+        <v>0.04661652288717025</v>
       </c>
       <c r="F4">
-        <v>0.5037206941243789</v>
+        <v>0.004784749589651438</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.1452973112544494</v>
+        <v>0.2426885130953781</v>
       </c>
       <c r="C5">
-        <v>0.6947206117884998</v>
+        <v>-0.490895322124013</v>
       </c>
       <c r="D5">
-        <v>-0.8886993011483927</v>
+        <v>-0.04661652288717025</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.5068041222154503</v>
+        <v>-0.03461136853351204</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2579751896406907</v>
+        <v>0.4014614465942877</v>
       </c>
       <c r="C6">
-        <v>1.21719574849004</v>
+        <v>-0.6382996992832101</v>
       </c>
       <c r="D6">
-        <v>-0.5037206941243789</v>
+        <v>-0.004784749589651438</v>
       </c>
       <c r="E6">
-        <v>0.5068041222154503</v>
+        <v>0.03461136853351204</v>
       </c>
       <c r="F6">
         <v>0</v>
